--- a/medicine/Enfance/Nadja_(auteur)/Nadja_(auteur).xlsx
+++ b/medicine/Enfance/Nadja_(auteur)/Nadja_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nadja Fejtö née El Kayem, dite simplement Nadja, née le 6 mars 1955[1] à Alexandrie (Égypte), est une auteure, peintre et illustratrice de livres pour enfants et de bande dessinée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadja Fejtö née El Kayem, dite simplement Nadja, née le 6 mars 1955 à Alexandrie (Égypte), est une auteure, peintre et illustratrice de livres pour enfants et de bande dessinée.
 </t>
         </is>
       </c>
@@ -513,11 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Sa famille a vécu au Liban jusqu'en 1960, puis à Paris. Sa mère, Olga Lecaye, est d'origine russe et elle-même auteure et illustratrice de livres pour enfants.
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa famille a vécu au Liban jusqu'en 1960, puis à Paris. Sa mère, Olga Lecaye, est d'origine russe et elle-même auteure et illustratrice de livres pour enfants.
 Elle est la sœur de Grégoire Solotareff, auteur et dessinateur, et d'Alexis Lecaye, scénariste et romancier. Elle est la mère de l'auteur Raphaël Fejtö (né en 1974).
 Après avoir créé des ouvrages pour enfants, dont Chien Bleu, elle aborde la Bande dessinée depuis 2001.
-En 1994, elle obtient la « Mention » Prix critique en herbe de  la Foire du livre de jeunesse de Bologne[2] (Italie) pour Le sapin des lutins .
+En 1994, elle obtient la « Mention » Prix critique en herbe de  la Foire du livre de jeunesse de Bologne (Italie) pour Le sapin des lutins .
 </t>
         </is>
       </c>
@@ -548,7 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres illustrés
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pourquoi les éléphants sont gris ?, Gallimard Jeunesse, 1986.
 Canal différent (illustration), avec Nicolas de Hirsching (texte), Gallimard, coll. « Folio cadet », 1987.
 Les Bébés animaux (illustration), avec Grégoire Solotareff (texte), 24 volumes, Hatier, 1988.
@@ -619,8 +642,43 @@
 Deux mains deux petits chiens (École des loisirs), 2013.
 Toute la vérité sur ma classe de sixième et mes meufs de cinquième !, illustrations ; texte de Raphaël Fejtö (École des loisirs), 2015.
 Blanche Neige et Grise Pluie, illustrations ; texte de Grégoire Solotareff  (École des loisirs), 2015.
-Bandes dessinées
-Comment faire des livres pour enfants, Cornélius, coll. « Raoul », 2002.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nadja_(auteur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadja_(auteur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Comment faire des livres pour enfants, Cornélius, coll. « Raoul », 2002.
 Celles que j'ai pas fumées, Cornélius, coll. « Raoul », 2004.
 Le Menteur, d'après Henry James, Denoël Graphic, 2004.
 Chaperon rouge. Collection privée, Cornélius, coll. « Raoul », 2005.
@@ -638,43 +696,79 @@
 Le Cœur sanglant de la réalité, L'Apocalypse, 2012.
 Ô Cruelle, éditions Acte Sud BD, 2014  (ISBN 978-2-330-01430-8)
 Le Fil d'Ariane - Récit d'une trahison, Actes Sud BD, 2021
-Aphrodite , Dupuis, 2022  (ISBN 9791034762835)
-Autres illustrations
-Les Filles sont au café, éditions MeMo, 2009. Portfolio de 20 cartes postales.</t>
+Aphrodite , Dupuis, 2022  (ISBN 9791034762835)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Nadja_(auteur)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nadja_(auteur)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Filles sont au café, éditions MeMo, 2009. Portfolio de 20 cartes postales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nadja_(auteur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadja_(auteur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Totem 1989 au Salon du livre jeunesse de Montreuil[3],[4], pour Chien Bleu
- « Mention » Prix critique en herbe 1994[2] de  la Foire du livre de jeunesse de Bologne (Italie) pour Le sapin des lutins .
-Prix Bob-Morane 2007[5] dans la catégorie Bande dessinée francophone, pour Le Chemin de Maison-Haute
-Sélection Prix Artémisia 2015[6] pour Ô Cruelle
-Sélection officielle du Festival d'Angoulême 2022[7] pour Le Fil d'Ariane - Récit d'une trahison</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Totem 1989 au Salon du livre jeunesse de Montreuil pour Chien Bleu
+ « Mention » Prix critique en herbe 1994 de  la Foire du livre de jeunesse de Bologne (Italie) pour Le sapin des lutins .
+Prix Bob-Morane 2007 dans la catégorie Bande dessinée francophone, pour Le Chemin de Maison-Haute
+Sélection Prix Artémisia 2015 pour Ô Cruelle
+Sélection officielle du Festival d'Angoulême 2022 pour Le Fil d'Ariane - Récit d'une trahison</t>
         </is>
       </c>
     </row>
